--- a/data/trans_camb/P54_A_2_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P54_A_2_R-Urba-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>53,95</t>
+          <t>48,8</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>53,21</t>
+          <t>50,9</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>56,28</t>
+          <t>56,93</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>61,5</t>
+          <t>60,8</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>55,2</t>
+          <t>53,2</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>57,63</t>
+          <t>56,2</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>44,79; 61,24</t>
+          <t>33,58; 59,36</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>43,68; 60,44</t>
+          <t>37,75; 61,52</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>49,31; 62,16</t>
+          <t>48,02; 64,66</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>55,08; 67,25</t>
+          <t>52,3; 68,47</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>49,43; 60,37</t>
+          <t>45,22; 59,86</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>52,11; 62,57</t>
+          <t>49,3; 62,25</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>431,78%</t>
+          <t>340,21%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>425,89%</t>
+          <t>354,84%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>418,67%</t>
+          <t>442,94%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>457,5%</t>
+          <t>473,11%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>424,42%</t>
+          <t>393,03%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>443,08%</t>
+          <t>415,19%</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>214,01; 708,54</t>
+          <t>120,31; 661,62</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>189,44; 668,43</t>
+          <t>139,55; 688,82</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>284,14; 595,31</t>
+          <t>276,21; 732,22</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>320,63; 651,63</t>
+          <t>287,06; 766,72</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>292,31; 566,92</t>
+          <t>214,21; 565,6</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>310,13; 588,45</t>
+          <t>240,47; 582,73</t>
         </is>
       </c>
     </row>
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>58,08</t>
+          <t>57,06</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>59,55</t>
+          <t>57,96</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>59,3</t>
+          <t>62,1</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>61,17</t>
+          <t>63,3</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>58,62</t>
+          <t>59,82</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>60,15</t>
+          <t>60,64</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>49,38; 65,73</t>
+          <t>46,34; 67,04</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>50,03; 67,21</t>
+          <t>46,62; 67,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>51,2; 66,67</t>
+          <t>51,71; 70,59</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>52,0; 68,2</t>
+          <t>54,14; 71,63</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>53,0; 63,87</t>
+          <t>52,17; 67,09</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>54,3; 65,22</t>
+          <t>53,04; 66,51</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>410,29%</t>
+          <t>401,63%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>420,72%</t>
+          <t>407,94%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>263,4%</t>
+          <t>346,6%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>271,7%</t>
+          <t>353,3%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>314,22%</t>
+          <t>369,69%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>322,43%</t>
+          <t>374,76%</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>259,91; 623,29</t>
+          <t>229,19; 696,14</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>254,19; 661,53</t>
+          <t>231,21; 714,37</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>174,99; 392,93</t>
+          <t>214,6; 566,35</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>179,33; 395,52</t>
+          <t>222,42; 583,02</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>234,24; 408,37</t>
+          <t>244,81; 514,4</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>239,16; 421,79</t>
+          <t>255,02; 530,63</t>
         </is>
       </c>
     </row>
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>53,74</t>
+          <t>48,89</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>47,23</t>
+          <t>47,61</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>60,79</t>
+          <t>65,08</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>64,07</t>
+          <t>73,54</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>57,13</t>
+          <t>56,79</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>55,4</t>
+          <t>60,55</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>26,09; 71,98</t>
+          <t>-4,79; 78,98</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>17,59; 65,63</t>
+          <t>2,18; 77,05</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>45,37; 73,8</t>
+          <t>43,67; 80,19</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>47,22; 75,6</t>
+          <t>53,1; 85,99</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>40,73; 68,3</t>
+          <t>27,91; 73,32</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>36,64; 66,13</t>
+          <t>28,45; 75,79</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>292,62%</t>
+          <t>185,07%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>257,14%</t>
+          <t>180,22%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>304,05%</t>
+          <t>374,6%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>320,46%</t>
+          <t>423,31%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>299,03%</t>
+          <t>257,99%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>289,97%</t>
+          <t>275,07%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>50,9; 1284,04</t>
+          <t>-18,46; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>24,41; 1159,42</t>
+          <t>-8,35; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>146,43; 625,14</t>
+          <t>135,46; 979,51</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>147,44; 622,53</t>
+          <t>163,7; 1036,51</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>121,21; 586,9</t>
+          <t>48,32; 735,13</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>91,16; 541,1</t>
+          <t>49,33; 779,76</t>
         </is>
       </c>
     </row>
@@ -1069,27 +1069,27 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>55,54</t>
+          <t>52,15</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>55,07</t>
+          <t>53,37</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>57,92</t>
+          <t>59,88</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>61,64</t>
+          <t>63,05</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>56,79</t>
+          <t>56,29</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>48,58; 61,04</t>
+          <t>41,97; 59,63</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>48,08; 60,63</t>
+          <t>43,6; 61,21</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>52,9; 62,52</t>
+          <t>54,1; 65,22</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>56,35; 65,75</t>
+          <t>56,62; 68,57</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>52,95; 60,82</t>
+          <t>50,47; 60,99</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>54,7; 62,17</t>
+          <t>52,84; 62,84</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>399,51%</t>
+          <t>332,71%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>396,13%</t>
+          <t>340,51%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>326,95%</t>
+          <t>390,69%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>347,94%</t>
+          <t>411,41%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>356,62%</t>
+          <t>363,44%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>367,0%</t>
+          <t>377,32%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,39 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>259,25; 576,0</t>
+          <t>170,3; 519,36</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>254,02; 575,08</t>
+          <t>174,65; 552,84</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>247,0; 414,44</t>
+          <t>284,38; 534,74</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>264,99; 433,6</t>
+          <t>295,47; 558,42</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>282,36; 440,11</t>
+          <t>256,89; 485,32</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>294,58; 453,15</t>
+          <t>260,88; 494,08</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P54_A_2_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P54_A_2_R-Urba-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -599,467 +608,319 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>48,8</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>50,9</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>56,93</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>60,8</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>53,2</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>56,2</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>49.32695848400805</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>51.14500167949424</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>57.92757545760996</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>61.4734123585102</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>53.99538015673729</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>56.74133743396459</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>33,58; 59,36</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>37,75; 61,52</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>48,02; 64,66</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>52,3; 68,47</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>45,22; 59,86</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>49,3; 62,25</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>34.55362965896862</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>37.92041424302302</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>48.96142850842068</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>52.97007316210569</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>46.13172474316129</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>50.0655667101203</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>340,21%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>354,84%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>442,94%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>473,11%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>393,03%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>415,19%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>59.41625401214245</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>61.54484830961356</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>65.78399530519286</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>68.99197811827214</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>60.51926554728374</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>62.7790963962852</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>120,31; 661,62</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>139,55; 688,82</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>276,21; 732,22</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>287,06; 766,72</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>214,21; 565,6</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>240,47; 582,73</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>3.438715899762523</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>3.565456615892431</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>4.507387377926992</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>4.783291562851856</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>3.988804075373747</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>4.191656348038777</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>57,06</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>57,96</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>62,1</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>63,3</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>59,82</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>60,64</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>1.231314501401769</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>1.385270011837033</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>2.796211121674291</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>2.903203092732139</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>2.191035833726464</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>2.411019101391934</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>46,34; 67,04</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>46,62; 67,42</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>51,71; 70,59</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>54,14; 71,63</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>52,17; 67,09</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>53,04; 66,51</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>6.708352530960697</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>6.894966176923852</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>7.412666736442619</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>7.802531163159532</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>5.763582113393844</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>5.842789908548813</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>401,63%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>407,94%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>346,6%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>353,3%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>369,69%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>374,76%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>54.25324926396634</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>58.07904500507787</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>62.38079533298503</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>63.64570616077609</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>58.43535497837594</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>60.8339252792616</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>229,19; 696,14</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>231,21; 714,37</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>214,6; 566,35</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>222,42; 583,02</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>244,81; 514,4</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>255,02; 530,63</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>41.26845289411057</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>46.69658034265528</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>52.05519643302028</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>54.37992087931976</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>49.36563720554633</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>53.39400804047649</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>48,89</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>47,61</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>65,08</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>73,54</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>56,79</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>60,55</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>65.77257490006542</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>67.85986219292705</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>70.78202085177978</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>71.92916112385061</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>65.8806692470561</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>66.78004011095365</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-4,79; 78,98</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>2,18; 77,05</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>43,67; 80,19</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>53,1; 85,99</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>27,91; 73,32</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>28,45; 75,79</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>3.818695848262094</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>4.087980186271038</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>3.481901020536837</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>3.552504389388804</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>3.611325014888523</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>3.759557483584272</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>185,07%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>180,22%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>374,6%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>423,31%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>257,99%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>275,07%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>2.153779299001839</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>2.344636118542139</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>2.144496097540639</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>2.259473098276282</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>2.318121533290419</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>2.570704790163995</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-18,46; —</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-8,35; —</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>135,46; 979,51</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>163,7; 1036,51</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>48,32; 735,13</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>49,33; 779,76</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>6.647980197305904</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>7.168219520821927</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>5.651799310436209</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>5.912005317931592</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>5.053925430769912</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>5.253748556016332</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1067,153 +928,313 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>52,15</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>53,37</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>59,88</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>63,05</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>56,29</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>58,44</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>49.40603548646413</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>42.39473128253539</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>64.96736816174315</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>72.78605843979558</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>57.19968557375882</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>57.91594811369728</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>41,97; 59,63</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>43,6; 61,21</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>54,1; 65,22</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>56,62; 68,57</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>50,47; 60,99</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>52,84; 62,84</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-3.950803544006663</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-4.518022286402192</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>42.96815661229979</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>52.30829240766849</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>29.03102771818602</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>25.27908229330086</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>332,71%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>340,51%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>390,69%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>411,41%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>363,44%</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>377,32%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>78.96669185788386</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>72.23233917151236</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>80.35831113702885</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>85.78077660324625</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>73.97123685265109</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>73.37126147902258</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>170,3; 519,36</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>174,65; 552,84</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>284,38; 534,74</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>295,47; 558,42</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>256,89; 485,32</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>260,88; 494,08</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>1.870277476793702</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>1.604862852721111</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>3.739790452423795</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>4.189866607263905</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>2.598288095046867</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>2.630824225478044</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.1614011662604751</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.1832459760523713</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>1.321449324822176</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>1.598625631381437</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>0.5085917465419351</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <v>0.4398449004474315</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="inlineStr"/>
+      <c r="D21" s="6" t="inlineStr"/>
+      <c r="E21" s="6" t="n">
+        <v>9.435928786279238</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>10.31517332721423</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <v>7.307125320360961</v>
+      </c>
+      <c r="H21" s="6" t="n">
+        <v>7.588564794595001</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>51.25744923254443</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>53.06279104339331</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>60.40246863016636</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>63.50468169597139</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>56.11763006761854</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>58.56274884502014</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>40.45777801945081</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>42.9519415725974</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>54.35545703448685</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>57.62503478358899</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>50.39596946866835</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>53.02467599719586</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>58.77386919119238</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>60.56559288812772</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>65.55781803197634</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>69.02700646491563</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>60.84229195291193</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>62.86650440170166</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>3.270344348720298</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>3.385529350647188</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>3.941213879962275</v>
+      </c>
+      <c r="F25" s="6" t="n">
+        <v>4.143630858453861</v>
+      </c>
+      <c r="G25" s="6" t="n">
+        <v>3.623167273607282</v>
+      </c>
+      <c r="H25" s="6" t="n">
+        <v>3.781033425896491</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>1.62498218394486</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>1.736152112288773</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>2.869869843306063</v>
+      </c>
+      <c r="F26" s="6" t="n">
+        <v>2.983168295738014</v>
+      </c>
+      <c r="G26" s="6" t="n">
+        <v>2.549423899356872</v>
+      </c>
+      <c r="H26" s="6" t="n">
+        <v>2.615179076666855</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>5.143012075551785</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>5.533261879067753</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>5.379049367122759</v>
+      </c>
+      <c r="F27" s="6" t="n">
+        <v>5.624575063672101</v>
+      </c>
+      <c r="G27" s="6" t="n">
+        <v>4.832839713523273</v>
+      </c>
+      <c r="H27" s="6" t="n">
+        <v>4.958407255532286</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1221,14 +1242,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
